--- a/РАБОЧИЙ СТОЛ/машины ПОКОМ ЗПФ.xlsx
+++ b/РАБОЧИЙ СТОЛ/машины ПОКОМ ЗПФ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D490F9DD-E028-4002-8A17-E23D0A350731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FF67A7-31E2-43A4-AEFA-9DCB37683337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Бердянск</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>КОЛ-ВО ПАЛЛЕТ</t>
+  </si>
+  <si>
+    <t>4 машина</t>
   </si>
 </sst>
 </file>
@@ -118,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +134,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -398,17 +407,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -524,6 +522,86 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -533,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -551,40 +629,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -867,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,43 +986,47 @@
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="13" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="35" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="29" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="51"/>
+      <c r="L1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="M1" s="39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="30"/>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
@@ -938,35 +1045,43 @@
       <c r="I2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="J2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="44"/>
+      <c r="M2" s="40"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5"/>
       <c r="H3" s="4"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="19">
-        <f>B3-D3-F3-H3</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="20">
-        <f>C3-E3-G3-I3</f>
+      <c r="J3" s="4"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="4">
+        <f>B3-D3-F3-H3-J3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <f>C3-E3-G3-I3-K3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="10"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
@@ -974,20 +1089,22 @@
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="2">
-        <f t="shared" ref="J4:J10" si="0">B4-D4-F4-H4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <f t="shared" ref="K4:K10" si="1">C4-E4-G4-I4</f>
+      <c r="J4" s="2"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L11" si="0">B4-D4-F4-H4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" ref="M4:M11" si="1">C4-E4-G4-I4-K4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="10"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
@@ -995,20 +1112,22 @@
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="2">
+      <c r="J5" s="2"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="3">
+      <c r="M5" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="10"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -1016,20 +1135,22 @@
       <c r="G6" s="3"/>
       <c r="H6" s="2"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="2">
+      <c r="J6" s="2"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="3">
+      <c r="M6" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="10"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
@@ -1037,133 +1158,162 @@
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="2">
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="3">
+      <c r="M7" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="14"/>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13"/>
       <c r="F9" s="11"/>
       <c r="G9" s="13"/>
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="2">
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="21">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21">
+        <f>SUM(B3:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="21">
+        <f>SUM(C3:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <f>SUM(D3:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" ref="E10:I10" si="2">SUM(E3:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" ref="J10:K10" si="3">SUM(J3:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="22">
+      <c r="M10" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="23">
-        <f>SUM(B3:B10)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="23">
-        <f>SUM(C3:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
-        <f>SUM(D3:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
-        <f t="shared" ref="E11:I11" si="2">SUM(E3:E10)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="17">
-        <f>SUM(J3:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="17">
-        <f>SUM(K3:K10)</f>
-        <v>0</v>
-      </c>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="27"/>
+      <c r="J12">
+        <f>SUM(J10:J11)</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>SUM(K10:K11)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="K1:K2"/>
+  <mergeCells count="9">
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
